--- a/data/trans_camb/IP2001-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP2001-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,22</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,28</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,14</t>
+          <t>-3,3</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 7,54</t>
+          <t>-2,62; 6,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 6,56</t>
+          <t>-3,02; 5,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -0,73</t>
+          <t>-7,44; 1,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 2,6</t>
+          <t>0,31; 9,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 3,69</t>
+          <t>1,79; 11,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,36; -4,66</t>
+          <t>-7,2; 0,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 3,43</t>
+          <t>0,4; 6,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 3,64</t>
+          <t>0,59; 6,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,14; -3,39</t>
+          <t>-6,57; -0,57</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>24,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-36,52%</t>
+          <t>-35,43%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-17,75%</t>
+          <t>61,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,19%</t>
+          <t>79,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-63,54%</t>
+          <t>-41,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>41,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>45,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-50,07%</t>
+          <t>-38,1%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 76,08</t>
+          <t>-24,99; 97,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,21; 67,55</t>
+          <t>-27,36; 86,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-61,63; -4,43</t>
+          <t>-65,04; 26,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,22; 22,43</t>
+          <t>0,46; 167,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,71; 32,98</t>
+          <t>14,4; 196,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,18; -39,34</t>
+          <t>-68,77; 21,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 31,78</t>
+          <t>2,42; 95,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 34,53</t>
+          <t>4,66; 95,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-65,59; -30,64</t>
+          <t>-61,13; -5,31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-8,28</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>-6,14</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 6,85</t>
+          <t>-2,27; 7,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 5,98</t>
+          <t>-3,2; 6,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 1,59</t>
+          <t>-8,91; -0,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 9,9</t>
+          <t>-7,32; 2,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,79; 11,56</t>
+          <t>-5,79; 3,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 0,83</t>
+          <t>-12,36; -4,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 6,92</t>
+          <t>-3,33; 3,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 6,87</t>
+          <t>-3,28; 3,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,57; -0,57</t>
+          <t>-9,14; -3,39</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>24,4%</t>
+          <t>23,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-35,43%</t>
+          <t>-36,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>61,06%</t>
+          <t>-17,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>79,82%</t>
+          <t>-8,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-41,06%</t>
+          <t>-63,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>41,28%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>45,69%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-38,1%</t>
+          <t>-50,07%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,99; 97,56</t>
+          <t>-16,43; 76,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,36; 86,41</t>
+          <t>-23,21; 67,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-65,04; 26,91</t>
+          <t>-61,63; -4,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,46; 167,65</t>
+          <t>-46,22; 22,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,4; 196,4</t>
+          <t>-37,71; 32,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-68,77; 21,46</t>
+          <t>-78,18; -39,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,42; 95,08</t>
+          <t>-23,37; 31,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,66; 95,7</t>
+          <t>-23,13; 34,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-61,13; -5,31</t>
+          <t>-65,59; -30,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2001-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP2001-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>1,8</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,4; -0,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 3,17</t>
+          <t>0,0; 3,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 3,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 2,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 5,42</t>
+          <t>0,0; 10,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,92</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 2,56</t>
+          <t>0,0; 5,63</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>64,43%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-28,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-75,64; 666,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-66,29; 454,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-80,9; 501,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,76; 1128,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-82,49; 118,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-56,46; 231,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-64,24; 285,25</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 6,85</t>
+          <t>-1,2; 5,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 5,98</t>
+          <t>-0,81; 6,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 1,59</t>
+          <t>-2,61; 4,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 9,9</t>
+          <t>0,38; 7,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 11,56</t>
+          <t>0,61; 8,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 0,83</t>
+          <t>-4,14; 2,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 6,92</t>
+          <t>0,44; 5,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 6,87</t>
+          <t>0,73; 5,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,57; -0,57</t>
+          <t>-2,25; 2,36</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,4%</t>
+          <t>46,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>58,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-35,43%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>61,06%</t>
+          <t>88,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>79,82%</t>
+          <t>90,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-41,06%</t>
+          <t>-19,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>41,28%</t>
+          <t>65,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>45,69%</t>
+          <t>73,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-38,1%</t>
+          <t>1,85%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,99; 97,56</t>
+          <t>-23,6; 191,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,36; 86,41</t>
+          <t>-19,57; 198,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,04; 26,91</t>
+          <t>-46,97; 143,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 167,65</t>
+          <t>1,13; 224,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,4; 196,4</t>
+          <t>4,42; 270,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,77; 21,46</t>
+          <t>-70,36; 79,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 95,08</t>
+          <t>3,74; 152,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,66; 95,7</t>
+          <t>10,69; 165,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-61,13; -5,31</t>
+          <t>-41,15; 69,49</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,22</t>
+          <t>-7,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,28</t>
+          <t>-7,69</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,14</t>
+          <t>-7,33</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 7,54</t>
+          <t>-6,99; 5,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 6,56</t>
+          <t>-3,83; 9,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -0,73</t>
+          <t>-12,92; -1,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 2,6</t>
+          <t>-6,03; 7,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 3,69</t>
+          <t>-4,29; 8,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,36; -4,66</t>
+          <t>-13,24; -1,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 3,43</t>
+          <t>-4,28; 4,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 3,64</t>
+          <t>-2,52; 6,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,14; -3,39</t>
+          <t>-11,88; -3,28</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>-3,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-36,52%</t>
+          <t>-51,56%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-17,75%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,19%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-63,54%</t>
+          <t>-55,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-50,07%</t>
+          <t>-53,35%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 76,08</t>
+          <t>-43,75; 60,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,21; 67,55</t>
+          <t>-22,44; 89,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-61,63; -4,43</t>
+          <t>-77,54; -12,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,22; 22,43</t>
+          <t>-33,94; 72,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,71; 32,98</t>
+          <t>-25,76; 86,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-78,18; -39,34</t>
+          <t>-77,61; -9,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 31,78</t>
+          <t>-26,45; 42,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 34,53</t>
+          <t>-14,67; 60,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-65,59; -30,64</t>
+          <t>-69,74; -27,96</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>-8,97</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-6,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,8</t>
+          <t>-2,02; 9,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 4,16</t>
+          <t>-6,75; 3,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 0,44</t>
+          <t>-9,87; -0,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,33</t>
+          <t>-8,06; 3,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,59</t>
+          <t>-6,5; 4,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,97; -1,85</t>
+          <t>-14,16; -4,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,0</t>
+          <t>-3,1; 4,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,03; 3,81</t>
+          <t>-5,42; 2,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; -1,18</t>
+          <t>-10,1; -3,9</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>-15,89%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-24,74%</t>
+          <t>-41,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>-17,99%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>24,4%</t>
+          <t>-5,54%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-46,51%</t>
+          <t>-68,59%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>-10,39%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-35,42%</t>
+          <t>-55,19%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 54,55</t>
+          <t>-14,68; 100,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 60,9</t>
+          <t>-48,31; 34,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-46,02; 6,94</t>
+          <t>-65,65; 2,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 45,07</t>
+          <t>-55,11; 30,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 62,88</t>
+          <t>-41,87; 43,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-63,46; -24,24</t>
+          <t>-82,97; -45,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 40,73</t>
+          <t>-21,02; 44,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,32; 51,64</t>
+          <t>-37,92; 21,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-49,79; -15,35</t>
+          <t>-69,42; -34,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,97</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-3,93</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-2,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 4,05</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 4,19</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 0,21</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 3,68</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 4,77</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-6,23; -1,63</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 3,04</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 3,86</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; -1,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>17,89%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>21,67%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-24,74%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>10,52%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>24,4%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-46,51%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>14,2%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>23,02%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-35,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-10,79; 59,03</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-8,52; 63,69</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-48,0; 3,46</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-17,64; 50,86</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-5,74; 68,95</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-63,12; -20,58</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 41,42</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 51,0</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-50,53; -18,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP2001-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP2001-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,49</t>
+          <t>0,0; 4,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,67</t>
+          <t>0,0; 10,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0,0; 1,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,63</t>
+          <t>0,0; 6,03</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 5,74</t>
+          <t>-1,08; 5,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 6,17</t>
+          <t>-0,53; 6,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 4,57</t>
+          <t>-1,98; 5,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 7,65</t>
+          <t>0,47; 7,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 8,21</t>
+          <t>0,16; 8,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 2,43</t>
+          <t>-3,84; 2,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 5,5</t>
+          <t>0,61; 5,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 5,69</t>
+          <t>0,95; 6,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,36</t>
+          <t>-2,15; 2,66</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,6; 191,74</t>
+          <t>-20,38; 172,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 198,91</t>
+          <t>-13,8; 204,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-46,97; 143,38</t>
+          <t>-38,58; 163,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 224,59</t>
+          <t>2,11; 241,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 270,16</t>
+          <t>-6,99; 248,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,36; 79,29</t>
+          <t>-66,49; 74,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 152,73</t>
+          <t>10,08; 162,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,69; 165,96</t>
+          <t>17,7; 175,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,15; 69,49</t>
+          <t>-40,77; 74,16</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 5,79</t>
+          <t>-6,89; 5,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 9,51</t>
+          <t>-3,49; 10,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,92; -1,22</t>
+          <t>-12,72; -1,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 7,64</t>
+          <t>-5,49; 8,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 8,35</t>
+          <t>-4,82; 8,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,24; -1,79</t>
+          <t>-13,86; -1,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 4,97</t>
+          <t>-5,04; 4,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 6,86</t>
+          <t>-1,51; 7,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,88; -3,28</t>
+          <t>-12,09; -3,42</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-43,75; 60,15</t>
+          <t>-40,59; 62,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,44; 89,43</t>
+          <t>-21,42; 95,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,54; -12,25</t>
+          <t>-73,33; -13,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,94; 72,41</t>
+          <t>-31,22; 84,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,76; 86,42</t>
+          <t>-27,2; 81,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-77,61; -9,7</t>
+          <t>-76,28; -15,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,45; 42,74</t>
+          <t>-32,03; 40,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 60,51</t>
+          <t>-9,03; 66,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-69,74; -27,96</t>
+          <t>-70,59; -28,23</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 9,19</t>
+          <t>-2,21; 9,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 3,21</t>
+          <t>-7,16; 3,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,87; -0,04</t>
+          <t>-9,59; -0,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 3,26</t>
+          <t>-7,56; 3,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 4,47</t>
+          <t>-6,66; 4,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,16; -4,91</t>
+          <t>-13,73; -4,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 4,72</t>
+          <t>-3,2; 4,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 2,46</t>
+          <t>-5,59; 2,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,1; -3,9</t>
+          <t>-10,38; -3,64</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 100,55</t>
+          <t>-14,9; 97,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-48,31; 34,22</t>
+          <t>-51,07; 36,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-65,65; 2,92</t>
+          <t>-66,5; 1,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,11; 30,24</t>
+          <t>-49,39; 31,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,87; 43,87</t>
+          <t>-42,62; 44,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-82,97; -45,1</t>
+          <t>-82,08; -43,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,02; 44,37</t>
+          <t>-22,58; 45,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-37,92; 21,79</t>
+          <t>-37,97; 23,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-69,42; -34,48</t>
+          <t>-70,92; -33,48</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,05</t>
+          <t>-0,8; 3,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,19</t>
+          <t>-0,77; 4,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 0,21</t>
+          <t>-4,25; 0,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 3,68</t>
+          <t>-1,61; 3,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 4,77</t>
+          <t>-0,7; 4,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,23; -1,63</t>
+          <t>-6,21; -1,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,04</t>
+          <t>-0,59; 2,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 3,86</t>
+          <t>0,0; 3,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,7; -1,39</t>
+          <t>-4,57; -1,15</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 59,03</t>
+          <t>-9,28; 56,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 63,69</t>
+          <t>-8,77; 59,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-48,0; 3,46</t>
+          <t>-46,7; 8,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 50,86</t>
+          <t>-16,63; 49,28</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 68,95</t>
+          <t>-7,65; 62,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-63,12; -20,58</t>
+          <t>-63,28; -25,36</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 41,42</t>
+          <t>-6,59; 38,08</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>0,35; 51,0</t>
+          <t>0,81; 50,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-50,53; -18,37</t>
+          <t>-50,04; -14,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2001-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP2001-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -637,34 +637,34 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3,38</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,7</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,51</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,33</t>
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,7</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 11,44</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,58</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,75</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,67</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,03</t>
+          <t>0,0; 5,62</t>
         </is>
       </c>
     </row>
@@ -743,27 +743,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,97</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4,07</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-1,0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>2,04</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>2,6</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,97</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,07</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-0,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 5,45</t>
+          <t>0,46; 8,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 6,1</t>
+          <t>0,6; 7,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 5,13</t>
+          <t>-4,09; 2,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 7,55</t>
+          <t>-1,25; 5,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 8,26</t>
+          <t>-0,96; 5,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 2,26</t>
+          <t>-2,38; 4,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,48</t>
+          <t>0,51; 5,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 6,06</t>
+          <t>0,79; 5,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,66</t>
+          <t>-2,16; 2,34</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>88,28%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>90,53%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-22,25%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>46,04%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>58,78%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>21,89%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>88,28%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>90,53%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-19,97%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>-0,09%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 172,61</t>
+          <t>1,51; 253,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 204,47</t>
+          <t>3,78; 262,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,58; 163,18</t>
+          <t>-70,17; 70,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 241,85</t>
+          <t>-23,91; 188,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 248,26</t>
+          <t>-18,37; 196,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,49; 74,82</t>
+          <t>-44,58; 143,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,08; 162,27</t>
+          <t>8,8; 161,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,7; 175,66</t>
+          <t>11,92; 169,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-40,77; 74,16</t>
+          <t>-40,29; 69,78</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-7,64</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-0,5</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>3,38</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-7,01</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-7,69</t>
+          <t>-7,04</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-7,33</t>
+          <t>-7,32</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 5,91</t>
+          <t>-4,92; 7,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 10,04</t>
+          <t>-4,44; 8,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,72; -1,55</t>
+          <t>-13,46; -2,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 8,24</t>
+          <t>-7,06; 6,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 8,33</t>
+          <t>-3,13; 10,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,86; -1,99</t>
+          <t>-12,93; -1,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 4,65</t>
+          <t>-4,61; 5,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 7,36</t>
+          <t>-2,62; 6,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,09; -3,42</t>
+          <t>-11,28; -3,44</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>8,13%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>14,1%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-55,04%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-3,69%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>24,82%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-51,56%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>8,13%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>14,1%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-55,34%</t>
+          <t>-51,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-53,35%</t>
+          <t>-53,29%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,59; 62,39</t>
+          <t>-30,16; 75,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 95,51</t>
+          <t>-26,12; 77,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-73,33; -13,28</t>
+          <t>-77,51; -15,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,22; 84,55</t>
+          <t>-41,55; 55,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,2; 81,82</t>
+          <t>-19,13; 99,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-76,28; -15,42</t>
+          <t>-74,81; -13,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,03; 40,68</t>
+          <t>-27,57; 50,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 66,67</t>
+          <t>-15,03; 62,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-70,59; -28,23</t>
+          <t>-69,29; -27,95</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-2,35</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-9,27</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>3,75</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-1,89</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-4,95</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-2,35</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-8,97</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-6,88</t>
+          <t>-6,99</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 9,14</t>
+          <t>-7,3; 3,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 3,27</t>
+          <t>-6,62; 4,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,59; -0,1</t>
+          <t>-14,03; -5,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 3,27</t>
+          <t>-1,9; 10,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 4,7</t>
+          <t>-6,7; 3,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,73; -4,81</t>
+          <t>-9,88; 0,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 4,64</t>
+          <t>-3,1; 4,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 2,4</t>
+          <t>-5,22; 3,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,38; -3,64</t>
+          <t>-10,16; -3,64</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-17,99%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-5,54%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-70,87%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>31,62%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-15,89%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-41,7%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-17,99%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-5,54%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-68,59%</t>
+          <t>-41,23%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-55,19%</t>
+          <t>-56,1%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 97,93</t>
+          <t>-48,72; 30,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-51,07; 36,63</t>
+          <t>-43,16; 43,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-66,5; 1,33</t>
+          <t>-85,64; -48,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-49,39; 31,01</t>
+          <t>-12,78; 114,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,62; 44,86</t>
+          <t>-47,58; 42,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-82,08; -43,49</t>
+          <t>-66,0; 4,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 45,11</t>
+          <t>-22,25; 49,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-37,97; 23,15</t>
+          <t>-36,91; 29,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-70,92; -33,48</t>
+          <t>-71,17; -34,51</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-4,09</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>1,43</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>1,73</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-1,97</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>2,06</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-2,98</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,87</t>
+          <t>-1,54; 3,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,15</t>
+          <t>-0,77; 4,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 0,38</t>
+          <t>-6,11; -1,95</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 3,52</t>
+          <t>-1,1; 3,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 4,66</t>
+          <t>-0,7; 4,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,21; -1,8</t>
+          <t>-4,1; 0,43</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,86</t>
+          <t>-0,66; 3,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,67</t>
+          <t>0,03; 3,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,57; -1,15</t>
+          <t>-4,55; -1,25</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>10,52%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>24,4%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-48,49%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>17,89%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>21,67%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-24,74%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>10,52%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>24,4%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-46,51%</t>
+          <t>-24,84%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-35,42%</t>
+          <t>-36,29%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 56,69</t>
+          <t>-16,21; 45,07</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 59,0</t>
+          <t>-7,86; 62,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-46,7; 8,09</t>
+          <t>-64,77; -25,68</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 49,28</t>
+          <t>-12,22; 54,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 62,5</t>
+          <t>-8,08; 60,9</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-63,28; -25,36</t>
+          <t>-45,65; 7,15</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 38,08</t>
+          <t>-7,15; 40,73</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>0,81; 50,89</t>
+          <t>1,32; 51,64</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-50,04; -14,22</t>
+          <t>-49,76; -15,91</t>
         </is>
       </c>
     </row>
